--- a/templates/characters.xlsx
+++ b/templates/characters.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sato_takahito/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sato_takahito/projects/seedtable-example/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14600" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="characters" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -65,25 +65,6 @@
   </si>
   <si>
     <t>F.I.R.S.T</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>アルル</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ボク</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>さっちゃんさん</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>髪が長い</t>
-    <rPh sb="0" eb="1">
-      <t>カミガナガイ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -441,13 +422,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D24" sqref="D24"/>
+      <selection pane="bottomRight" activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -488,28 +469,6 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -518,13 +477,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D26" sqref="D26"/>
+      <selection pane="bottomRight" activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -534,19 +493,19 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
@@ -554,19 +513,19 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
         <v>12</v>
-      </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
@@ -588,300 +547,6 @@
       </c>
       <c r="F3">
         <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4">
-        <v>102</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" t="str">
-        <f>VLOOKUP(B4,characters!$A$3:$B$10000,2)</f>
-        <v>さくら</v>
-      </c>
-      <c r="D4">
-        <v>2</v>
-      </c>
-      <c r="E4">
-        <v>120</v>
-      </c>
-      <c r="F4">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5">
-        <v>103</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5" t="str">
-        <f>VLOOKUP(B5,characters!$A$3:$B$10000,2)</f>
-        <v>さくら</v>
-      </c>
-      <c r="D5">
-        <v>3</v>
-      </c>
-      <c r="E5">
-        <v>150</v>
-      </c>
-      <c r="F5">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6">
-        <v>104</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6" t="str">
-        <f>VLOOKUP(B6,characters!$A$3:$B$10000,2)</f>
-        <v>さくら</v>
-      </c>
-      <c r="D6">
-        <v>4</v>
-      </c>
-      <c r="E6">
-        <v>200</v>
-      </c>
-      <c r="F6">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7">
-        <v>105</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7" t="str">
-        <f>VLOOKUP(B7,characters!$A$3:$B$10000,2)</f>
-        <v>さくら</v>
-      </c>
-      <c r="D7">
-        <v>5</v>
-      </c>
-      <c r="E7">
-        <v>300</v>
-      </c>
-      <c r="F7">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8">
-        <v>201</v>
-      </c>
-      <c r="B8">
-        <v>2</v>
-      </c>
-      <c r="C8" t="str">
-        <f>VLOOKUP(B8,characters!$A$3:$B$10000,2)</f>
-        <v>アルル</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8">
-        <v>200</v>
-      </c>
-      <c r="F8">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A9">
-        <v>202</v>
-      </c>
-      <c r="B9">
-        <v>2</v>
-      </c>
-      <c r="C9" t="str">
-        <f>VLOOKUP(B9,characters!$A$3:$B$10000,2)</f>
-        <v>アルル</v>
-      </c>
-      <c r="D9">
-        <v>2</v>
-      </c>
-      <c r="E9">
-        <v>250</v>
-      </c>
-      <c r="F9">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A10">
-        <v>203</v>
-      </c>
-      <c r="B10">
-        <v>2</v>
-      </c>
-      <c r="C10" t="str">
-        <f>VLOOKUP(B10,characters!$A$3:$B$10000,2)</f>
-        <v>アルル</v>
-      </c>
-      <c r="D10">
-        <v>3</v>
-      </c>
-      <c r="E10">
-        <v>350</v>
-      </c>
-      <c r="F10">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A11">
-        <v>204</v>
-      </c>
-      <c r="B11">
-        <v>2</v>
-      </c>
-      <c r="C11" t="str">
-        <f>VLOOKUP(B11,characters!$A$3:$B$10000,2)</f>
-        <v>アルル</v>
-      </c>
-      <c r="D11">
-        <v>4</v>
-      </c>
-      <c r="E11">
-        <v>500</v>
-      </c>
-      <c r="F11">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A12">
-        <v>205</v>
-      </c>
-      <c r="B12">
-        <v>2</v>
-      </c>
-      <c r="C12" t="str">
-        <f>VLOOKUP(B12,characters!$A$3:$B$10000,2)</f>
-        <v>アルル</v>
-      </c>
-      <c r="D12">
-        <v>5</v>
-      </c>
-      <c r="E12">
-        <v>700</v>
-      </c>
-      <c r="F12">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A13">
-        <v>301</v>
-      </c>
-      <c r="B13">
-        <v>3</v>
-      </c>
-      <c r="C13" t="str">
-        <f>VLOOKUP(B13,characters!$A$3:$B$10000,2)</f>
-        <v>さっちゃんさん</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13">
-        <v>50</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A14">
-        <v>302</v>
-      </c>
-      <c r="B14">
-        <v>3</v>
-      </c>
-      <c r="C14" t="str">
-        <f>VLOOKUP(B14,characters!$A$3:$B$10000,2)</f>
-        <v>さっちゃんさん</v>
-      </c>
-      <c r="D14">
-        <v>2</v>
-      </c>
-      <c r="E14">
-        <v>80</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A15">
-        <v>303</v>
-      </c>
-      <c r="B15">
-        <v>3</v>
-      </c>
-      <c r="C15" t="str">
-        <f>VLOOKUP(B15,characters!$A$3:$B$10000,2)</f>
-        <v>さっちゃんさん</v>
-      </c>
-      <c r="D15">
-        <v>3</v>
-      </c>
-      <c r="E15">
-        <v>130</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A16">
-        <v>304</v>
-      </c>
-      <c r="B16">
-        <v>3</v>
-      </c>
-      <c r="C16" t="str">
-        <f>VLOOKUP(B16,characters!$A$3:$B$10000,2)</f>
-        <v>さっちゃんさん</v>
-      </c>
-      <c r="D16">
-        <v>4</v>
-      </c>
-      <c r="E16">
-        <v>200</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A17">
-        <v>305</v>
-      </c>
-      <c r="B17">
-        <v>3</v>
-      </c>
-      <c r="C17" t="str">
-        <f>VLOOKUP(B17,characters!$A$3:$B$10000,2)</f>
-        <v>さっちゃんさん</v>
-      </c>
-      <c r="D17">
-        <v>5</v>
-      </c>
-      <c r="E17">
-        <v>300</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
